--- a/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$85</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="81">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>No_PCI_Medical_Group_5_or_Greater</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -833,10 +836,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -857,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>6</v>
@@ -880,7 +926,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -901,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>6</v>
@@ -916,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
@@ -924,7 +970,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -945,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>6</v>
@@ -968,7 +1014,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -989,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>6</v>
@@ -1004,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="5">
         <v>0</v>
@@ -1012,7 +1058,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -1033,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>6</v>
@@ -1056,7 +1102,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -1077,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>6</v>
@@ -1092,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="5">
         <v>0</v>
@@ -1100,7 +1146,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -1121,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>6</v>
@@ -1144,7 +1190,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -1165,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>6</v>
@@ -1180,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="5">
         <v>0</v>
@@ -1188,7 +1234,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -1209,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>6</v>
@@ -1231,52 +1277,52 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="8">
         <v>2</v>
@@ -1297,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>6</v>
@@ -1320,7 +1366,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="8">
         <v>2</v>
@@ -1341,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>6</v>
@@ -1356,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N16" s="8">
         <v>0</v>
@@ -1364,7 +1410,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="8">
         <v>2</v>
@@ -1385,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>6</v>
@@ -1408,7 +1454,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -1429,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>6</v>
@@ -1444,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N18" s="8">
         <v>0</v>
@@ -1452,7 +1498,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="8">
         <v>2</v>
@@ -1473,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>6</v>
@@ -1496,7 +1542,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
@@ -1517,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>6</v>
@@ -1532,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20" s="8">
         <v>0</v>
@@ -1540,7 +1586,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
@@ -1561,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>6</v>
@@ -1584,7 +1630,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="8">
         <v>2</v>
@@ -1605,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>6</v>
@@ -1620,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
@@ -1628,7 +1674,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="8">
         <v>2</v>
@@ -1649,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>6</v>
@@ -1672,7 +1718,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="8">
         <v>2</v>
@@ -1693,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>6</v>
@@ -1708,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N24" s="8">
         <v>0</v>
@@ -1716,7 +1762,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="8">
         <v>2</v>
@@ -1737,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>6</v>
@@ -1759,52 +1805,52 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="8">
-        <v>2</v>
-      </c>
-      <c r="C26" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2</v>
-      </c>
-      <c r="E26" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L26" s="8">
-        <v>1</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" s="8">
+      <c r="A26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
@@ -1825,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>6</v>
@@ -1848,7 +1894,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -1869,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>6</v>
@@ -1884,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N28" s="5">
         <v>0</v>
@@ -1892,7 +1938,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -1913,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>6</v>
@@ -1936,7 +1982,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B30" s="5">
         <v>1</v>
@@ -1945,7 +1991,7 @@
         <v>43004</v>
       </c>
       <c r="D30" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="4" t="b">
         <v>1</v>
@@ -1957,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>6</v>
@@ -1969,10 +2015,10 @@
         <v>10000001</v>
       </c>
       <c r="L30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N30" s="5">
         <v>0</v>
@@ -1980,7 +2026,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -2001,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>6</v>
@@ -2024,7 +2070,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
@@ -2045,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>6</v>
@@ -2060,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N32" s="5">
         <v>0</v>
@@ -2068,7 +2114,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
@@ -2089,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>6</v>
@@ -2112,7 +2158,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
@@ -2121,7 +2167,7 @@
         <v>43004</v>
       </c>
       <c r="D34" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" s="4" t="b">
         <v>1</v>
@@ -2133,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>6</v>
@@ -2145,10 +2191,10 @@
         <v>10000001</v>
       </c>
       <c r="L34" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N34" s="5">
         <v>0</v>
@@ -2156,7 +2202,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
@@ -2177,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>6</v>
@@ -2200,7 +2246,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
@@ -2221,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>6</v>
@@ -2236,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N36" s="5">
         <v>0</v>
@@ -2244,7 +2290,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
@@ -2265,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>6</v>
@@ -2288,7 +2334,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
@@ -2297,7 +2343,7 @@
         <v>43004</v>
       </c>
       <c r="D38" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" s="4" t="b">
         <v>1</v>
@@ -2309,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>6</v>
@@ -2321,10 +2367,10 @@
         <v>10000001</v>
       </c>
       <c r="L38" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N38" s="5">
         <v>0</v>
@@ -2332,7 +2378,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -2353,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>6</v>
@@ -2376,7 +2422,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -2397,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>6</v>
@@ -2412,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N40" s="5">
         <v>0</v>
@@ -2420,7 +2466,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -2441,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>6</v>
@@ -2464,7 +2510,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -2473,7 +2519,7 @@
         <v>43004</v>
       </c>
       <c r="D42" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" s="4" t="b">
         <v>1</v>
@@ -2485,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>6</v>
@@ -2497,10 +2543,10 @@
         <v>10000001</v>
       </c>
       <c r="L42" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N42" s="5">
         <v>0</v>
@@ -2508,7 +2554,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -2529,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>6</v>
@@ -2552,7 +2598,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -2573,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>6</v>
@@ -2588,7 +2634,7 @@
         <v>5</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N44" s="5">
         <v>0</v>
@@ -2596,7 +2642,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -2617,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>6</v>
@@ -2640,7 +2686,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B46" s="5">
         <v>1</v>
@@ -2649,7 +2695,7 @@
         <v>43004</v>
       </c>
       <c r="D46" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" s="4" t="b">
         <v>1</v>
@@ -2661,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>6</v>
@@ -2673,10 +2719,10 @@
         <v>10000001</v>
       </c>
       <c r="L46" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N46" s="5">
         <v>0</v>
@@ -2684,7 +2730,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47" s="5">
         <v>1</v>
@@ -2705,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>6</v>
@@ -2728,7 +2774,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -2749,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>6</v>
@@ -2764,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N48" s="5">
         <v>0</v>
@@ -2772,7 +2818,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
@@ -2793,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>6</v>
@@ -2816,7 +2862,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -2825,7 +2871,7 @@
         <v>43004</v>
       </c>
       <c r="D50" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E50" s="4" t="b">
         <v>1</v>
@@ -2837,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>6</v>
@@ -2849,10 +2895,10 @@
         <v>10000001</v>
       </c>
       <c r="L50" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N50" s="5">
         <v>0</v>
@@ -2860,7 +2906,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -2881,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>6</v>
@@ -2904,7 +2950,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -2925,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>6</v>
@@ -2940,7 +2986,7 @@
         <v>2</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N52" s="5">
         <v>0</v>
@@ -2948,7 +2994,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -2969,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>6</v>
@@ -2992,7 +3038,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -3001,7 +3047,7 @@
         <v>43004</v>
       </c>
       <c r="D54" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" s="4" t="b">
         <v>1</v>
@@ -3013,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>6</v>
@@ -3025,10 +3071,10 @@
         <v>10000001</v>
       </c>
       <c r="L54" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N54" s="5">
         <v>0</v>
@@ -3036,7 +3082,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
@@ -3057,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>6</v>
@@ -3080,7 +3126,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -3101,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>6</v>
@@ -3116,7 +3162,7 @@
         <v>3</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N56" s="5">
         <v>0</v>
@@ -3124,7 +3170,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
@@ -3145,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>6</v>
@@ -3168,7 +3214,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B58" s="5">
         <v>1</v>
@@ -3177,7 +3223,7 @@
         <v>43004</v>
       </c>
       <c r="D58" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" s="4" t="b">
         <v>1</v>
@@ -3189,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>6</v>
@@ -3201,10 +3247,10 @@
         <v>10000001</v>
       </c>
       <c r="L58" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N58" s="5">
         <v>0</v>
@@ -3212,7 +3258,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
@@ -3233,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>6</v>
@@ -3256,7 +3302,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" s="5">
         <v>1</v>
@@ -3277,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>6</v>
@@ -3292,7 +3338,7 @@
         <v>4</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N60" s="5">
         <v>0</v>
@@ -3300,7 +3346,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="5">
         <v>1</v>
@@ -3321,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>6</v>
@@ -3344,7 +3390,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B62" s="5">
         <v>1</v>
@@ -3353,7 +3399,7 @@
         <v>43004</v>
       </c>
       <c r="D62" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62" s="4" t="b">
         <v>1</v>
@@ -3365,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>6</v>
@@ -3377,10 +3423,10 @@
         <v>10000001</v>
       </c>
       <c r="L62" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N62" s="5">
         <v>0</v>
@@ -3388,7 +3434,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" s="5">
         <v>1</v>
@@ -3409,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>6</v>
@@ -3432,7 +3478,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -3453,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>6</v>
@@ -3468,7 +3514,7 @@
         <v>5</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N64" s="5">
         <v>0</v>
@@ -3476,7 +3522,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -3497,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>6</v>
@@ -3519,52 +3565,52 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="5">
-        <v>1</v>
-      </c>
-      <c r="C66" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D66" s="5">
-        <v>12</v>
-      </c>
-      <c r="E66" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K66" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L66" s="5">
-        <v>5</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N66" s="5">
+      <c r="A66" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="8">
+        <v>2</v>
+      </c>
+      <c r="C66" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D66" s="8">
+        <v>13</v>
+      </c>
+      <c r="E66" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L66" s="8">
+        <v>1</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N66" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B67" s="8">
         <v>2</v>
@@ -3585,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>6</v>
@@ -3608,7 +3654,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68" s="8">
         <v>2</v>
@@ -3629,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>6</v>
@@ -3644,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N68" s="8">
         <v>0</v>
@@ -3652,7 +3698,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B69" s="8">
         <v>2</v>
@@ -3673,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>6</v>
@@ -3696,7 +3742,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B70" s="8">
         <v>2</v>
@@ -3705,7 +3751,7 @@
         <v>43004</v>
       </c>
       <c r="D70" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E70" s="7" t="b">
         <v>1</v>
@@ -3717,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>6</v>
@@ -3729,10 +3775,10 @@
         <v>10000001</v>
       </c>
       <c r="L70" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N70" s="8">
         <v>0</v>
@@ -3740,7 +3786,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" s="8">
         <v>2</v>
@@ -3761,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>6</v>
@@ -3784,7 +3830,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" s="8">
         <v>2</v>
@@ -3805,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>6</v>
@@ -3820,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N72" s="8">
         <v>0</v>
@@ -3828,7 +3874,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B73" s="8">
         <v>2</v>
@@ -3849,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>6</v>
@@ -3872,7 +3918,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B74" s="8">
         <v>2</v>
@@ -3881,7 +3927,7 @@
         <v>43004</v>
       </c>
       <c r="D74" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E74" s="7" t="b">
         <v>1</v>
@@ -3893,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>6</v>
@@ -3905,10 +3951,10 @@
         <v>10000001</v>
       </c>
       <c r="L74" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N74" s="8">
         <v>0</v>
@@ -3916,7 +3962,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75" s="8">
         <v>2</v>
@@ -3937,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>6</v>
@@ -3960,7 +4006,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="8">
         <v>2</v>
@@ -3981,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>6</v>
@@ -3996,7 +4042,7 @@
         <v>3</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N76" s="8">
         <v>0</v>
@@ -4004,7 +4050,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B77" s="8">
         <v>2</v>
@@ -4025,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>6</v>
@@ -4048,7 +4094,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B78" s="8">
         <v>2</v>
@@ -4057,7 +4103,7 @@
         <v>43004</v>
       </c>
       <c r="D78" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E78" s="7" t="b">
         <v>1</v>
@@ -4069,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>6</v>
@@ -4081,10 +4127,10 @@
         <v>10000001</v>
       </c>
       <c r="L78" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N78" s="8">
         <v>0</v>
@@ -4092,7 +4138,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B79" s="8">
         <v>2</v>
@@ -4113,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>6</v>
@@ -4136,7 +4182,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="8">
         <v>2</v>
@@ -4157,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>6</v>
@@ -4172,15 +4218,15 @@
         <v>4</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N80" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B81" s="8">
         <v>2</v>
@@ -4201,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>6</v>
@@ -4222,9 +4268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B82" s="8">
         <v>2</v>
@@ -4233,7 +4279,7 @@
         <v>43004</v>
       </c>
       <c r="D82" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E82" s="7" t="b">
         <v>1</v>
@@ -4245,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>6</v>
@@ -4257,18 +4303,18 @@
         <v>10000001</v>
       </c>
       <c r="L82" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N82" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B83" s="8">
         <v>2</v>
@@ -4289,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>6</v>
@@ -4310,9 +4356,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" s="8">
         <v>2</v>
@@ -4333,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>6</v>
@@ -4348,15 +4394,15 @@
         <v>5</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N84" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B85" s="8">
         <v>2</v>
@@ -4377,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>6</v>
@@ -4398,52 +4444,478 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86" s="8">
-        <v>2</v>
-      </c>
-      <c r="C86" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D86" s="8">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="5">
+        <v>1</v>
+      </c>
+      <c r="C89" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D89" s="5">
+        <v>8</v>
+      </c>
+      <c r="E89" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L89" s="5">
+        <v>1</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N89" s="5">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="5">
+        <v>1</v>
+      </c>
+      <c r="C90" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D90" s="5">
+        <v>9</v>
+      </c>
+      <c r="E90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K90" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L90" s="5">
+        <v>2</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N90" s="5">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="5">
+        <v>1</v>
+      </c>
+      <c r="C91" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D91" s="5">
+        <v>10</v>
+      </c>
+      <c r="E91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L91" s="5">
+        <v>3</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N91" s="5">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B92" s="5">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D92" s="5">
+        <v>11</v>
+      </c>
+      <c r="E92" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K92" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L92" s="5">
+        <v>4</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N92" s="5">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="5">
+        <v>1</v>
+      </c>
+      <c r="C93" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D93" s="5">
+        <v>12</v>
+      </c>
+      <c r="E93" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K93" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L93" s="5">
+        <v>5</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N93" s="5">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="8">
+        <v>2</v>
+      </c>
+      <c r="C94" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D94" s="8">
+        <v>13</v>
+      </c>
+      <c r="E94" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K94" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L94" s="8">
+        <v>1</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N94" s="8">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" s="8">
+        <v>2</v>
+      </c>
+      <c r="C95" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D95" s="8">
+        <v>14</v>
+      </c>
+      <c r="E95" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K95" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L95" s="8">
+        <v>2</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N95" s="8">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="8">
+        <v>2</v>
+      </c>
+      <c r="C96" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D96" s="8">
+        <v>15</v>
+      </c>
+      <c r="E96" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K96" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L96" s="8">
+        <v>3</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N96" s="8">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B97" s="8">
+        <v>2</v>
+      </c>
+      <c r="C97" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D97" s="8">
+        <v>16</v>
+      </c>
+      <c r="E97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L97" s="8">
+        <v>4</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N97" s="8">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="8">
+        <v>2</v>
+      </c>
+      <c r="C98" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D98" s="8">
         <v>17</v>
       </c>
-      <c r="E86" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F86" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G86" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K86" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L86" s="8">
+      <c r="E98" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K98" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L98" s="8">
         <v>5</v>
       </c>
-      <c r="M86" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N86" s="8">
-        <v>0</v>
+      <c r="M98" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N98" s="8">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N86"/>
+  <autoFilter ref="A1:N85"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="80">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>No_PCI_Medical_Group_5_or_Greater</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -676,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4224,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>75</v>
       </c>
@@ -4268,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>78</v>
       </c>
@@ -4312,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>79</v>
       </c>
@@ -4356,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>78</v>
       </c>
@@ -4400,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>79</v>
       </c>
@@ -4442,476 +4439,6 @@
       </c>
       <c r="N85" s="8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89" s="5">
-        <v>1</v>
-      </c>
-      <c r="C89" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D89" s="5">
-        <v>8</v>
-      </c>
-      <c r="E89" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G89" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K89" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L89" s="5">
-        <v>1</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N89" s="5">
-        <v>0</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B90" s="5">
-        <v>1</v>
-      </c>
-      <c r="C90" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D90" s="5">
-        <v>9</v>
-      </c>
-      <c r="E90" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G90" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K90" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L90" s="5">
-        <v>2</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N90" s="5">
-        <v>0</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="5">
-        <v>1</v>
-      </c>
-      <c r="C91" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D91" s="5">
-        <v>10</v>
-      </c>
-      <c r="E91" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G91" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K91" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L91" s="5">
-        <v>3</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N91" s="5">
-        <v>0</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B92" s="5">
-        <v>1</v>
-      </c>
-      <c r="C92" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D92" s="5">
-        <v>11</v>
-      </c>
-      <c r="E92" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G92" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K92" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L92" s="5">
-        <v>4</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N92" s="5">
-        <v>0</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B93" s="5">
-        <v>1</v>
-      </c>
-      <c r="C93" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D93" s="5">
-        <v>12</v>
-      </c>
-      <c r="E93" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F93" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G93" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K93" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L93" s="5">
-        <v>5</v>
-      </c>
-      <c r="M93" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N93" s="5">
-        <v>0</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94" s="8">
-        <v>2</v>
-      </c>
-      <c r="C94" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D94" s="8">
-        <v>13</v>
-      </c>
-      <c r="E94" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F94" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G94" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K94" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L94" s="8">
-        <v>1</v>
-      </c>
-      <c r="M94" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N94" s="8">
-        <v>0</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B95" s="8">
-        <v>2</v>
-      </c>
-      <c r="C95" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D95" s="8">
-        <v>14</v>
-      </c>
-      <c r="E95" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F95" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G95" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K95" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L95" s="8">
-        <v>2</v>
-      </c>
-      <c r="M95" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N95" s="8">
-        <v>0</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="8">
-        <v>2</v>
-      </c>
-      <c r="C96" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D96" s="8">
-        <v>15</v>
-      </c>
-      <c r="E96" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F96" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G96" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K96" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L96" s="8">
-        <v>3</v>
-      </c>
-      <c r="M96" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N96" s="8">
-        <v>0</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B97" s="8">
-        <v>2</v>
-      </c>
-      <c r="C97" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D97" s="8">
-        <v>16</v>
-      </c>
-      <c r="E97" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F97" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G97" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K97" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L97" s="8">
-        <v>4</v>
-      </c>
-      <c r="M97" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N97" s="8">
-        <v>0</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B98" s="8">
-        <v>2</v>
-      </c>
-      <c r="C98" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D98" s="8">
-        <v>17</v>
-      </c>
-      <c r="E98" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G98" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K98" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L98" s="8">
-        <v>5</v>
-      </c>
-      <c r="M98" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N98" s="8">
-        <v>0</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4928,7 +4455,7 @@
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$87</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="80">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -673,12 +673,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -746,93 +746,50 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>24</v>
@@ -871,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4" s="5">
         <v>0</v>
@@ -915,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" s="5">
         <v>0</v>
@@ -959,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
@@ -1003,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N7" s="5">
         <v>0</v>
@@ -1047,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" s="5">
         <v>0</v>
@@ -1091,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" s="5">
         <v>0</v>
@@ -1135,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="5">
         <v>0</v>
@@ -1179,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" s="5">
         <v>0</v>
@@ -1223,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N12" s="5">
         <v>0</v>
@@ -1267,97 +1224,97 @@
         <v>1</v>
       </c>
       <c r="M13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="8">
+      <c r="N14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L15" s="8">
-        <v>1</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1399,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N16" s="8">
         <v>0</v>
@@ -1443,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N17" s="8">
         <v>0</v>
@@ -1487,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" s="8">
         <v>0</v>
@@ -1531,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19" s="8">
         <v>0</v>
@@ -1575,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20" s="8">
         <v>0</v>
@@ -1619,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21" s="8">
         <v>0</v>
@@ -1663,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
@@ -1707,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N23" s="8">
         <v>0</v>
@@ -1751,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N24" s="8">
         <v>0</v>
@@ -1795,97 +1752,97 @@
         <v>1</v>
       </c>
       <c r="M25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D26" s="5">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N26" s="5">
+      <c r="N26" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D27" s="5">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N27" s="5">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1927,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N28" s="5">
         <v>0</v>
@@ -1971,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N29" s="5">
         <v>0</v>
@@ -1979,7 +1936,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B30" s="5">
         <v>1</v>
@@ -1988,7 +1945,7 @@
         <v>43004</v>
       </c>
       <c r="D30" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="4" t="b">
         <v>1</v>
@@ -2012,10 +1969,10 @@
         <v>10000001</v>
       </c>
       <c r="L30" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N30" s="5">
         <v>0</v>
@@ -2023,7 +1980,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -2032,7 +1989,7 @@
         <v>43004</v>
       </c>
       <c r="D31" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" s="4" t="b">
         <v>1</v>
@@ -2056,10 +2013,10 @@
         <v>10000001</v>
       </c>
       <c r="L31" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N31" s="5">
         <v>0</v>
@@ -2103,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N32" s="5">
         <v>0</v>
@@ -2147,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N33" s="5">
         <v>0</v>
@@ -2155,7 +2112,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
@@ -2164,7 +2121,7 @@
         <v>43004</v>
       </c>
       <c r="D34" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="4" t="b">
         <v>1</v>
@@ -2188,10 +2145,10 @@
         <v>10000001</v>
       </c>
       <c r="L34" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N34" s="5">
         <v>0</v>
@@ -2199,7 +2156,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
@@ -2208,7 +2165,7 @@
         <v>43004</v>
       </c>
       <c r="D35" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="4" t="b">
         <v>1</v>
@@ -2232,10 +2189,10 @@
         <v>10000001</v>
       </c>
       <c r="L35" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N35" s="5">
         <v>0</v>
@@ -2279,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N36" s="5">
         <v>0</v>
@@ -2323,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N37" s="5">
         <v>0</v>
@@ -2331,7 +2288,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
@@ -2340,7 +2297,7 @@
         <v>43004</v>
       </c>
       <c r="D38" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="4" t="b">
         <v>1</v>
@@ -2364,10 +2321,10 @@
         <v>10000001</v>
       </c>
       <c r="L38" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N38" s="5">
         <v>0</v>
@@ -2375,7 +2332,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -2384,7 +2341,7 @@
         <v>43004</v>
       </c>
       <c r="D39" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="4" t="b">
         <v>1</v>
@@ -2408,10 +2365,10 @@
         <v>10000001</v>
       </c>
       <c r="L39" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N39" s="5">
         <v>0</v>
@@ -2455,7 +2412,7 @@
         <v>4</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N40" s="5">
         <v>0</v>
@@ -2499,7 +2456,7 @@
         <v>4</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N41" s="5">
         <v>0</v>
@@ -2507,7 +2464,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -2516,7 +2473,7 @@
         <v>43004</v>
       </c>
       <c r="D42" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" s="4" t="b">
         <v>1</v>
@@ -2540,10 +2497,10 @@
         <v>10000001</v>
       </c>
       <c r="L42" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N42" s="5">
         <v>0</v>
@@ -2551,7 +2508,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -2560,7 +2517,7 @@
         <v>43004</v>
       </c>
       <c r="D43" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="4" t="b">
         <v>1</v>
@@ -2584,10 +2541,10 @@
         <v>10000001</v>
       </c>
       <c r="L43" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N43" s="5">
         <v>0</v>
@@ -2631,7 +2588,7 @@
         <v>5</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N44" s="5">
         <v>0</v>
@@ -2675,7 +2632,7 @@
         <v>5</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N45" s="5">
         <v>0</v>
@@ -2683,7 +2640,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B46" s="5">
         <v>1</v>
@@ -2692,7 +2649,7 @@
         <v>43004</v>
       </c>
       <c r="D46" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" s="4" t="b">
         <v>1</v>
@@ -2716,10 +2673,10 @@
         <v>10000001</v>
       </c>
       <c r="L46" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N46" s="5">
         <v>0</v>
@@ -2727,7 +2684,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B47" s="5">
         <v>1</v>
@@ -2736,7 +2693,7 @@
         <v>43004</v>
       </c>
       <c r="D47" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" s="4" t="b">
         <v>1</v>
@@ -2760,10 +2717,10 @@
         <v>10000001</v>
       </c>
       <c r="L47" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N47" s="5">
         <v>0</v>
@@ -2807,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N48" s="5">
         <v>0</v>
@@ -2851,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N49" s="5">
         <v>0</v>
@@ -2859,7 +2816,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -2868,7 +2825,7 @@
         <v>43004</v>
       </c>
       <c r="D50" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" s="4" t="b">
         <v>1</v>
@@ -2892,10 +2849,10 @@
         <v>10000001</v>
       </c>
       <c r="L50" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N50" s="5">
         <v>0</v>
@@ -2903,7 +2860,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -2912,7 +2869,7 @@
         <v>43004</v>
       </c>
       <c r="D51" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" s="4" t="b">
         <v>1</v>
@@ -2936,10 +2893,10 @@
         <v>10000001</v>
       </c>
       <c r="L51" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N51" s="5">
         <v>0</v>
@@ -2983,7 +2940,7 @@
         <v>2</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N52" s="5">
         <v>0</v>
@@ -3027,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N53" s="5">
         <v>0</v>
@@ -3035,7 +2992,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -3044,7 +3001,7 @@
         <v>43004</v>
       </c>
       <c r="D54" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="4" t="b">
         <v>1</v>
@@ -3068,10 +3025,10 @@
         <v>10000001</v>
       </c>
       <c r="L54" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N54" s="5">
         <v>0</v>
@@ -3079,7 +3036,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
@@ -3088,7 +3045,7 @@
         <v>43004</v>
       </c>
       <c r="D55" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="4" t="b">
         <v>1</v>
@@ -3112,10 +3069,10 @@
         <v>10000001</v>
       </c>
       <c r="L55" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N55" s="5">
         <v>0</v>
@@ -3159,7 +3116,7 @@
         <v>3</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N56" s="5">
         <v>0</v>
@@ -3203,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N57" s="5">
         <v>0</v>
@@ -3211,7 +3168,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B58" s="5">
         <v>1</v>
@@ -3220,7 +3177,7 @@
         <v>43004</v>
       </c>
       <c r="D58" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="4" t="b">
         <v>1</v>
@@ -3244,10 +3201,10 @@
         <v>10000001</v>
       </c>
       <c r="L58" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N58" s="5">
         <v>0</v>
@@ -3255,7 +3212,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
@@ -3264,7 +3221,7 @@
         <v>43004</v>
       </c>
       <c r="D59" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="4" t="b">
         <v>1</v>
@@ -3288,10 +3245,10 @@
         <v>10000001</v>
       </c>
       <c r="L59" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N59" s="5">
         <v>0</v>
@@ -3335,7 +3292,7 @@
         <v>4</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N60" s="5">
         <v>0</v>
@@ -3379,7 +3336,7 @@
         <v>4</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N61" s="5">
         <v>0</v>
@@ -3387,7 +3344,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B62" s="5">
         <v>1</v>
@@ -3396,7 +3353,7 @@
         <v>43004</v>
       </c>
       <c r="D62" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" s="4" t="b">
         <v>1</v>
@@ -3420,10 +3377,10 @@
         <v>10000001</v>
       </c>
       <c r="L62" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N62" s="5">
         <v>0</v>
@@ -3431,7 +3388,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B63" s="5">
         <v>1</v>
@@ -3440,7 +3397,7 @@
         <v>43004</v>
       </c>
       <c r="D63" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" s="4" t="b">
         <v>1</v>
@@ -3464,10 +3421,10 @@
         <v>10000001</v>
       </c>
       <c r="L63" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N63" s="5">
         <v>0</v>
@@ -3511,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N64" s="5">
         <v>0</v>
@@ -3555,97 +3512,97 @@
         <v>5</v>
       </c>
       <c r="M65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D66" s="5">
+        <v>12</v>
+      </c>
+      <c r="E66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L66" s="5">
+        <v>5</v>
+      </c>
+      <c r="M66" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N65" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" s="8">
-        <v>2</v>
-      </c>
-      <c r="C66" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D66" s="8">
-        <v>13</v>
-      </c>
-      <c r="E66" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K66" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L66" s="8">
-        <v>1</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N66" s="8">
+      <c r="N66" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="8">
-        <v>2</v>
-      </c>
-      <c r="C67" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D67" s="8">
-        <v>13</v>
-      </c>
-      <c r="E67" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K67" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L67" s="8">
-        <v>1</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N67" s="8">
+      <c r="A67" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D67" s="5">
+        <v>12</v>
+      </c>
+      <c r="E67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L67" s="5">
+        <v>5</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N67" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3687,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N68" s="8">
         <v>0</v>
@@ -3731,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N69" s="8">
         <v>0</v>
@@ -3739,7 +3696,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B70" s="8">
         <v>2</v>
@@ -3748,7 +3705,7 @@
         <v>43004</v>
       </c>
       <c r="D70" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70" s="7" t="b">
         <v>1</v>
@@ -3772,10 +3729,10 @@
         <v>10000001</v>
       </c>
       <c r="L70" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N70" s="8">
         <v>0</v>
@@ -3783,7 +3740,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B71" s="8">
         <v>2</v>
@@ -3792,7 +3749,7 @@
         <v>43004</v>
       </c>
       <c r="D71" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71" s="7" t="b">
         <v>1</v>
@@ -3816,10 +3773,10 @@
         <v>10000001</v>
       </c>
       <c r="L71" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N71" s="8">
         <v>0</v>
@@ -3863,7 +3820,7 @@
         <v>2</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N72" s="8">
         <v>0</v>
@@ -3907,7 +3864,7 @@
         <v>2</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N73" s="8">
         <v>0</v>
@@ -3915,7 +3872,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B74" s="8">
         <v>2</v>
@@ -3924,7 +3881,7 @@
         <v>43004</v>
       </c>
       <c r="D74" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E74" s="7" t="b">
         <v>1</v>
@@ -3948,10 +3905,10 @@
         <v>10000001</v>
       </c>
       <c r="L74" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N74" s="8">
         <v>0</v>
@@ -3959,7 +3916,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B75" s="8">
         <v>2</v>
@@ -3968,7 +3925,7 @@
         <v>43004</v>
       </c>
       <c r="D75" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E75" s="7" t="b">
         <v>1</v>
@@ -3992,10 +3949,10 @@
         <v>10000001</v>
       </c>
       <c r="L75" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N75" s="8">
         <v>0</v>
@@ -4039,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N76" s="8">
         <v>0</v>
@@ -4083,7 +4040,7 @@
         <v>3</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N77" s="8">
         <v>0</v>
@@ -4091,7 +4048,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B78" s="8">
         <v>2</v>
@@ -4100,7 +4057,7 @@
         <v>43004</v>
       </c>
       <c r="D78" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78" s="7" t="b">
         <v>1</v>
@@ -4124,10 +4081,10 @@
         <v>10000001</v>
       </c>
       <c r="L78" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N78" s="8">
         <v>0</v>
@@ -4135,7 +4092,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B79" s="8">
         <v>2</v>
@@ -4144,7 +4101,7 @@
         <v>43004</v>
       </c>
       <c r="D79" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79" s="7" t="b">
         <v>1</v>
@@ -4168,10 +4125,10 @@
         <v>10000001</v>
       </c>
       <c r="L79" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N79" s="8">
         <v>0</v>
@@ -4215,7 +4172,7 @@
         <v>4</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N80" s="8">
         <v>0</v>
@@ -4259,7 +4216,7 @@
         <v>4</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N81" s="8">
         <v>0</v>
@@ -4267,7 +4224,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B82" s="8">
         <v>2</v>
@@ -4276,7 +4233,7 @@
         <v>43004</v>
       </c>
       <c r="D82" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82" s="7" t="b">
         <v>1</v>
@@ -4300,10 +4257,10 @@
         <v>10000001</v>
       </c>
       <c r="L82" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N82" s="8">
         <v>0</v>
@@ -4311,7 +4268,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B83" s="8">
         <v>2</v>
@@ -4320,7 +4277,7 @@
         <v>43004</v>
       </c>
       <c r="D83" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83" s="7" t="b">
         <v>1</v>
@@ -4344,10 +4301,10 @@
         <v>10000001</v>
       </c>
       <c r="L83" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N83" s="8">
         <v>0</v>
@@ -4391,7 +4348,7 @@
         <v>5</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N84" s="8">
         <v>0</v>
@@ -4435,14 +4392,102 @@
         <v>5</v>
       </c>
       <c r="M85" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N85" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="8">
+        <v>2</v>
+      </c>
+      <c r="C86" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D86" s="8">
+        <v>17</v>
+      </c>
+      <c r="E86" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K86" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L86" s="8">
+        <v>5</v>
+      </c>
+      <c r="M86" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N85" s="8">
+      <c r="N86" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="8">
+        <v>2</v>
+      </c>
+      <c r="C87" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D87" s="8">
+        <v>17</v>
+      </c>
+      <c r="E87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K87" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L87" s="8">
+        <v>5</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N87" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N85"/>
+  <autoFilter ref="A1:N87"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$91</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="80">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -673,12 +673,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -746,53 +746,53 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="8">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="8">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D2" s="5">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L2" s="5">
+        <v>26</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>6</v>
@@ -828,144 +828,58 @@
         <v>1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>24</v>
@@ -1004,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N8" s="5">
         <v>0</v>
@@ -1048,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N9" s="5">
         <v>0</v>
@@ -1092,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N10" s="5">
         <v>0</v>
@@ -1136,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N11" s="5">
         <v>0</v>
@@ -1180,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N12" s="5">
         <v>0</v>
@@ -1224,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N13" s="5">
         <v>0</v>
@@ -1268,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N14" s="5">
         <v>0</v>
@@ -1312,185 +1226,185 @@
         <v>1</v>
       </c>
       <c r="M15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="8">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D17" s="8">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L17" s="8">
-        <v>1</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="8">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="8">
+      <c r="N18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="8">
-        <v>2</v>
-      </c>
-      <c r="C19" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
-      <c r="E19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="8">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1532,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N20" s="8">
         <v>0</v>
@@ -1576,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N21" s="8">
         <v>0</v>
@@ -1620,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
@@ -1664,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N23" s="8">
         <v>0</v>
@@ -1708,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N24" s="8">
         <v>0</v>
@@ -1752,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N25" s="8">
         <v>0</v>
@@ -1796,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N26" s="8">
         <v>0</v>
@@ -1840,191 +1754,191 @@
         <v>1</v>
       </c>
       <c r="M27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2</v>
+      </c>
+      <c r="C30" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D30" s="8">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D28" s="5">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L28" s="5">
-        <v>1</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D29" s="5">
-        <v>3</v>
-      </c>
-      <c r="E29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D30" s="5">
-        <v>3</v>
-      </c>
-      <c r="E30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L30" s="5">
-        <v>1</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N30" s="5">
+      <c r="N30" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D31" s="5">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L31" s="5">
-        <v>1</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N31" s="5">
+      <c r="A31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
@@ -2033,7 +1947,7 @@
         <v>43004</v>
       </c>
       <c r="D32" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="4" t="b">
         <v>1</v>
@@ -2057,10 +1971,10 @@
         <v>10000001</v>
       </c>
       <c r="L32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N32" s="5">
         <v>0</v>
@@ -2068,7 +1982,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
@@ -2077,7 +1991,7 @@
         <v>43004</v>
       </c>
       <c r="D33" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="4" t="b">
         <v>1</v>
@@ -2101,10 +2015,10 @@
         <v>10000001</v>
       </c>
       <c r="L33" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N33" s="5">
         <v>0</v>
@@ -2112,7 +2026,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
@@ -2121,7 +2035,7 @@
         <v>43004</v>
       </c>
       <c r="D34" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="4" t="b">
         <v>1</v>
@@ -2145,10 +2059,10 @@
         <v>10000001</v>
       </c>
       <c r="L34" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N34" s="5">
         <v>0</v>
@@ -2156,7 +2070,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
@@ -2165,7 +2079,7 @@
         <v>43004</v>
       </c>
       <c r="D35" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" s="4" t="b">
         <v>1</v>
@@ -2189,10 +2103,10 @@
         <v>10000001</v>
       </c>
       <c r="L35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N35" s="5">
         <v>0</v>
@@ -2200,7 +2114,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
@@ -2209,7 +2123,7 @@
         <v>43004</v>
       </c>
       <c r="D36" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" s="4" t="b">
         <v>1</v>
@@ -2233,10 +2147,10 @@
         <v>10000001</v>
       </c>
       <c r="L36" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N36" s="5">
         <v>0</v>
@@ -2244,7 +2158,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
@@ -2253,7 +2167,7 @@
         <v>43004</v>
       </c>
       <c r="D37" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="4" t="b">
         <v>1</v>
@@ -2277,10 +2191,10 @@
         <v>10000001</v>
       </c>
       <c r="L37" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N37" s="5">
         <v>0</v>
@@ -2288,7 +2202,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
@@ -2297,7 +2211,7 @@
         <v>43004</v>
       </c>
       <c r="D38" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="4" t="b">
         <v>1</v>
@@ -2321,10 +2235,10 @@
         <v>10000001</v>
       </c>
       <c r="L38" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N38" s="5">
         <v>0</v>
@@ -2332,7 +2246,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -2341,7 +2255,7 @@
         <v>43004</v>
       </c>
       <c r="D39" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="4" t="b">
         <v>1</v>
@@ -2365,10 +2279,10 @@
         <v>10000001</v>
       </c>
       <c r="L39" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N39" s="5">
         <v>0</v>
@@ -2376,7 +2290,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -2385,7 +2299,7 @@
         <v>43004</v>
       </c>
       <c r="D40" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="4" t="b">
         <v>1</v>
@@ -2409,10 +2323,10 @@
         <v>10000001</v>
       </c>
       <c r="L40" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N40" s="5">
         <v>0</v>
@@ -2420,7 +2334,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -2429,7 +2343,7 @@
         <v>43004</v>
       </c>
       <c r="D41" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="4" t="b">
         <v>1</v>
@@ -2453,10 +2367,10 @@
         <v>10000001</v>
       </c>
       <c r="L41" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N41" s="5">
         <v>0</v>
@@ -2464,7 +2378,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -2473,7 +2387,7 @@
         <v>43004</v>
       </c>
       <c r="D42" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="4" t="b">
         <v>1</v>
@@ -2497,10 +2411,10 @@
         <v>10000001</v>
       </c>
       <c r="L42" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N42" s="5">
         <v>0</v>
@@ -2508,7 +2422,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -2517,7 +2431,7 @@
         <v>43004</v>
       </c>
       <c r="D43" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="4" t="b">
         <v>1</v>
@@ -2541,10 +2455,10 @@
         <v>10000001</v>
       </c>
       <c r="L43" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N43" s="5">
         <v>0</v>
@@ -2552,7 +2466,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -2561,7 +2475,7 @@
         <v>43004</v>
       </c>
       <c r="D44" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" s="4" t="b">
         <v>1</v>
@@ -2585,10 +2499,10 @@
         <v>10000001</v>
       </c>
       <c r="L44" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N44" s="5">
         <v>0</v>
@@ -2596,7 +2510,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -2605,7 +2519,7 @@
         <v>43004</v>
       </c>
       <c r="D45" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="4" t="b">
         <v>1</v>
@@ -2629,10 +2543,10 @@
         <v>10000001</v>
       </c>
       <c r="L45" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N45" s="5">
         <v>0</v>
@@ -2640,7 +2554,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B46" s="5">
         <v>1</v>
@@ -2649,7 +2563,7 @@
         <v>43004</v>
       </c>
       <c r="D46" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" s="4" t="b">
         <v>1</v>
@@ -2673,10 +2587,10 @@
         <v>10000001</v>
       </c>
       <c r="L46" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N46" s="5">
         <v>0</v>
@@ -2684,7 +2598,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B47" s="5">
         <v>1</v>
@@ -2693,7 +2607,7 @@
         <v>43004</v>
       </c>
       <c r="D47" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="4" t="b">
         <v>1</v>
@@ -2717,10 +2631,10 @@
         <v>10000001</v>
       </c>
       <c r="L47" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N47" s="5">
         <v>0</v>
@@ -2728,7 +2642,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -2737,7 +2651,7 @@
         <v>43004</v>
       </c>
       <c r="D48" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" s="4" t="b">
         <v>1</v>
@@ -2761,10 +2675,10 @@
         <v>10000001</v>
       </c>
       <c r="L48" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N48" s="5">
         <v>0</v>
@@ -2772,7 +2686,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
@@ -2781,7 +2695,7 @@
         <v>43004</v>
       </c>
       <c r="D49" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" s="4" t="b">
         <v>1</v>
@@ -2805,10 +2719,10 @@
         <v>10000001</v>
       </c>
       <c r="L49" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N49" s="5">
         <v>0</v>
@@ -2816,7 +2730,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -2825,7 +2739,7 @@
         <v>43004</v>
       </c>
       <c r="D50" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="4" t="b">
         <v>1</v>
@@ -2849,10 +2763,10 @@
         <v>10000001</v>
       </c>
       <c r="L50" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N50" s="5">
         <v>0</v>
@@ -2860,7 +2774,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -2869,7 +2783,7 @@
         <v>43004</v>
       </c>
       <c r="D51" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" s="4" t="b">
         <v>1</v>
@@ -2893,10 +2807,10 @@
         <v>10000001</v>
       </c>
       <c r="L51" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N51" s="5">
         <v>0</v>
@@ -2904,7 +2818,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -2913,7 +2827,7 @@
         <v>43004</v>
       </c>
       <c r="D52" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" s="4" t="b">
         <v>1</v>
@@ -2937,10 +2851,10 @@
         <v>10000001</v>
       </c>
       <c r="L52" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N52" s="5">
         <v>0</v>
@@ -2948,7 +2862,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -2957,7 +2871,7 @@
         <v>43004</v>
       </c>
       <c r="D53" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" s="4" t="b">
         <v>1</v>
@@ -2981,10 +2895,10 @@
         <v>10000001</v>
       </c>
       <c r="L53" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N53" s="5">
         <v>0</v>
@@ -2992,7 +2906,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -3001,7 +2915,7 @@
         <v>43004</v>
       </c>
       <c r="D54" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54" s="4" t="b">
         <v>1</v>
@@ -3025,10 +2939,10 @@
         <v>10000001</v>
       </c>
       <c r="L54" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N54" s="5">
         <v>0</v>
@@ -3036,7 +2950,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
@@ -3045,7 +2959,7 @@
         <v>43004</v>
       </c>
       <c r="D55" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55" s="4" t="b">
         <v>1</v>
@@ -3069,10 +2983,10 @@
         <v>10000001</v>
       </c>
       <c r="L55" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N55" s="5">
         <v>0</v>
@@ -3080,7 +2994,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -3089,7 +3003,7 @@
         <v>43004</v>
       </c>
       <c r="D56" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="4" t="b">
         <v>1</v>
@@ -3113,10 +3027,10 @@
         <v>10000001</v>
       </c>
       <c r="L56" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N56" s="5">
         <v>0</v>
@@ -3124,7 +3038,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
@@ -3133,7 +3047,7 @@
         <v>43004</v>
       </c>
       <c r="D57" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="4" t="b">
         <v>1</v>
@@ -3157,10 +3071,10 @@
         <v>10000001</v>
       </c>
       <c r="L57" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N57" s="5">
         <v>0</v>
@@ -3168,7 +3082,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B58" s="5">
         <v>1</v>
@@ -3177,7 +3091,7 @@
         <v>43004</v>
       </c>
       <c r="D58" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="4" t="b">
         <v>1</v>
@@ -3201,10 +3115,10 @@
         <v>10000001</v>
       </c>
       <c r="L58" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N58" s="5">
         <v>0</v>
@@ -3212,7 +3126,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
@@ -3221,7 +3135,7 @@
         <v>43004</v>
       </c>
       <c r="D59" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="4" t="b">
         <v>1</v>
@@ -3245,10 +3159,10 @@
         <v>10000001</v>
       </c>
       <c r="L59" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N59" s="5">
         <v>0</v>
@@ -3256,7 +3170,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B60" s="5">
         <v>1</v>
@@ -3265,7 +3179,7 @@
         <v>43004</v>
       </c>
       <c r="D60" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" s="4" t="b">
         <v>1</v>
@@ -3289,10 +3203,10 @@
         <v>10000001</v>
       </c>
       <c r="L60" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N60" s="5">
         <v>0</v>
@@ -3300,7 +3214,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B61" s="5">
         <v>1</v>
@@ -3309,7 +3223,7 @@
         <v>43004</v>
       </c>
       <c r="D61" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" s="4" t="b">
         <v>1</v>
@@ -3333,10 +3247,10 @@
         <v>10000001</v>
       </c>
       <c r="L61" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N61" s="5">
         <v>0</v>
@@ -3344,7 +3258,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B62" s="5">
         <v>1</v>
@@ -3353,7 +3267,7 @@
         <v>43004</v>
       </c>
       <c r="D62" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" s="4" t="b">
         <v>1</v>
@@ -3377,10 +3291,10 @@
         <v>10000001</v>
       </c>
       <c r="L62" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N62" s="5">
         <v>0</v>
@@ -3388,7 +3302,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B63" s="5">
         <v>1</v>
@@ -3397,7 +3311,7 @@
         <v>43004</v>
       </c>
       <c r="D63" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" s="4" t="b">
         <v>1</v>
@@ -3421,10 +3335,10 @@
         <v>10000001</v>
       </c>
       <c r="L63" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N63" s="5">
         <v>0</v>
@@ -3432,7 +3346,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -3441,7 +3355,7 @@
         <v>43004</v>
       </c>
       <c r="D64" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" s="4" t="b">
         <v>1</v>
@@ -3465,10 +3379,10 @@
         <v>10000001</v>
       </c>
       <c r="L64" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N64" s="5">
         <v>0</v>
@@ -3476,7 +3390,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -3485,7 +3399,7 @@
         <v>43004</v>
       </c>
       <c r="D65" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" s="4" t="b">
         <v>1</v>
@@ -3509,10 +3423,10 @@
         <v>10000001</v>
       </c>
       <c r="L65" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N65" s="5">
         <v>0</v>
@@ -3520,7 +3434,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B66" s="5">
         <v>1</v>
@@ -3529,7 +3443,7 @@
         <v>43004</v>
       </c>
       <c r="D66" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" s="4" t="b">
         <v>1</v>
@@ -3553,10 +3467,10 @@
         <v>10000001</v>
       </c>
       <c r="L66" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N66" s="5">
         <v>0</v>
@@ -3564,227 +3478,227 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D67" s="5">
+        <v>11</v>
+      </c>
+      <c r="E67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L67" s="5">
+        <v>4</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D68" s="5">
+        <v>12</v>
+      </c>
+      <c r="E68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K68" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L68" s="5">
+        <v>5</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="5">
-        <v>1</v>
-      </c>
-      <c r="C67" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D69" s="5">
         <v>12</v>
       </c>
-      <c r="E67" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K67" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L67" s="5">
+      <c r="E69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K69" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L69" s="5">
         <v>5</v>
       </c>
-      <c r="M67" s="4" t="s">
+      <c r="M69" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D70" s="5">
+        <v>12</v>
+      </c>
+      <c r="E70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K70" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L70" s="5">
+        <v>5</v>
+      </c>
+      <c r="M70" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N67" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="8">
-        <v>2</v>
-      </c>
-      <c r="C68" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D68" s="8">
-        <v>13</v>
-      </c>
-      <c r="E68" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K68" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L68" s="8">
-        <v>1</v>
-      </c>
-      <c r="M68" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N68" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="8">
-        <v>2</v>
-      </c>
-      <c r="C69" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D69" s="8">
-        <v>13</v>
-      </c>
-      <c r="E69" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G69" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K69" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L69" s="8">
-        <v>1</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N69" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B70" s="8">
-        <v>2</v>
-      </c>
-      <c r="C70" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D70" s="8">
-        <v>13</v>
-      </c>
-      <c r="E70" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K70" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L70" s="8">
-        <v>1</v>
-      </c>
-      <c r="M70" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N70" s="8">
+      <c r="N70" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" s="8">
-        <v>2</v>
-      </c>
-      <c r="C71" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D71" s="8">
-        <v>13</v>
-      </c>
-      <c r="E71" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K71" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L71" s="8">
-        <v>1</v>
-      </c>
-      <c r="M71" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N71" s="8">
+      <c r="A71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D71" s="5">
+        <v>12</v>
+      </c>
+      <c r="E71" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K71" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L71" s="5">
+        <v>5</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N71" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B72" s="8">
         <v>2</v>
@@ -3793,7 +3707,7 @@
         <v>43004</v>
       </c>
       <c r="D72" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72" s="7" t="b">
         <v>1</v>
@@ -3817,10 +3731,10 @@
         <v>10000001</v>
       </c>
       <c r="L72" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N72" s="8">
         <v>0</v>
@@ -3828,7 +3742,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B73" s="8">
         <v>2</v>
@@ -3837,7 +3751,7 @@
         <v>43004</v>
       </c>
       <c r="D73" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73" s="7" t="b">
         <v>1</v>
@@ -3861,10 +3775,10 @@
         <v>10000001</v>
       </c>
       <c r="L73" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N73" s="8">
         <v>0</v>
@@ -3872,7 +3786,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B74" s="8">
         <v>2</v>
@@ -3881,7 +3795,7 @@
         <v>43004</v>
       </c>
       <c r="D74" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" s="7" t="b">
         <v>1</v>
@@ -3905,10 +3819,10 @@
         <v>10000001</v>
       </c>
       <c r="L74" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N74" s="8">
         <v>0</v>
@@ -3916,7 +3830,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B75" s="8">
         <v>2</v>
@@ -3925,7 +3839,7 @@
         <v>43004</v>
       </c>
       <c r="D75" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75" s="7" t="b">
         <v>1</v>
@@ -3949,10 +3863,10 @@
         <v>10000001</v>
       </c>
       <c r="L75" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N75" s="8">
         <v>0</v>
@@ -3960,7 +3874,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B76" s="8">
         <v>2</v>
@@ -3969,7 +3883,7 @@
         <v>43004</v>
       </c>
       <c r="D76" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E76" s="7" t="b">
         <v>1</v>
@@ -3993,10 +3907,10 @@
         <v>10000001</v>
       </c>
       <c r="L76" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N76" s="8">
         <v>0</v>
@@ -4004,7 +3918,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B77" s="8">
         <v>2</v>
@@ -4013,7 +3927,7 @@
         <v>43004</v>
       </c>
       <c r="D77" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E77" s="7" t="b">
         <v>1</v>
@@ -4037,10 +3951,10 @@
         <v>10000001</v>
       </c>
       <c r="L77" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N77" s="8">
         <v>0</v>
@@ -4048,7 +3962,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B78" s="8">
         <v>2</v>
@@ -4057,7 +3971,7 @@
         <v>43004</v>
       </c>
       <c r="D78" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E78" s="7" t="b">
         <v>1</v>
@@ -4081,10 +3995,10 @@
         <v>10000001</v>
       </c>
       <c r="L78" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N78" s="8">
         <v>0</v>
@@ -4092,7 +4006,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B79" s="8">
         <v>2</v>
@@ -4101,7 +4015,7 @@
         <v>43004</v>
       </c>
       <c r="D79" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79" s="7" t="b">
         <v>1</v>
@@ -4125,10 +4039,10 @@
         <v>10000001</v>
       </c>
       <c r="L79" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N79" s="8">
         <v>0</v>
@@ -4136,7 +4050,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B80" s="8">
         <v>2</v>
@@ -4145,7 +4059,7 @@
         <v>43004</v>
       </c>
       <c r="D80" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80" s="7" t="b">
         <v>1</v>
@@ -4169,10 +4083,10 @@
         <v>10000001</v>
       </c>
       <c r="L80" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N80" s="8">
         <v>0</v>
@@ -4180,7 +4094,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B81" s="8">
         <v>2</v>
@@ -4189,7 +4103,7 @@
         <v>43004</v>
       </c>
       <c r="D81" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81" s="7" t="b">
         <v>1</v>
@@ -4213,10 +4127,10 @@
         <v>10000001</v>
       </c>
       <c r="L81" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N81" s="8">
         <v>0</v>
@@ -4224,7 +4138,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B82" s="8">
         <v>2</v>
@@ -4233,7 +4147,7 @@
         <v>43004</v>
       </c>
       <c r="D82" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E82" s="7" t="b">
         <v>1</v>
@@ -4257,10 +4171,10 @@
         <v>10000001</v>
       </c>
       <c r="L82" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N82" s="8">
         <v>0</v>
@@ -4268,7 +4182,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B83" s="8">
         <v>2</v>
@@ -4277,7 +4191,7 @@
         <v>43004</v>
       </c>
       <c r="D83" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E83" s="7" t="b">
         <v>1</v>
@@ -4301,10 +4215,10 @@
         <v>10000001</v>
       </c>
       <c r="L83" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N83" s="8">
         <v>0</v>
@@ -4312,7 +4226,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B84" s="8">
         <v>2</v>
@@ -4321,7 +4235,7 @@
         <v>43004</v>
       </c>
       <c r="D84" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84" s="7" t="b">
         <v>1</v>
@@ -4345,10 +4259,10 @@
         <v>10000001</v>
       </c>
       <c r="L84" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N84" s="8">
         <v>0</v>
@@ -4356,7 +4270,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B85" s="8">
         <v>2</v>
@@ -4365,7 +4279,7 @@
         <v>43004</v>
       </c>
       <c r="D85" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85" s="7" t="b">
         <v>1</v>
@@ -4389,10 +4303,10 @@
         <v>10000001</v>
       </c>
       <c r="L85" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N85" s="8">
         <v>0</v>
@@ -4400,7 +4314,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B86" s="8">
         <v>2</v>
@@ -4409,7 +4323,7 @@
         <v>43004</v>
       </c>
       <c r="D86" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E86" s="7" t="b">
         <v>1</v>
@@ -4433,10 +4347,10 @@
         <v>10000001</v>
       </c>
       <c r="L86" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N86" s="8">
         <v>0</v>
@@ -4444,50 +4358,226 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" s="8">
+        <v>2</v>
+      </c>
+      <c r="C87" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D87" s="8">
+        <v>16</v>
+      </c>
+      <c r="E87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K87" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L87" s="8">
+        <v>4</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N87" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="8">
+        <v>2</v>
+      </c>
+      <c r="C88" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D88" s="8">
+        <v>17</v>
+      </c>
+      <c r="E88" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K88" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L88" s="8">
+        <v>5</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N88" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="8">
-        <v>2</v>
-      </c>
-      <c r="C87" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D87" s="8">
+      <c r="B89" s="8">
+        <v>2</v>
+      </c>
+      <c r="C89" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D89" s="8">
         <v>17</v>
       </c>
-      <c r="E87" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F87" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G87" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K87" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L87" s="8">
+      <c r="E89" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L89" s="8">
         <v>5</v>
       </c>
-      <c r="M87" s="7" t="s">
+      <c r="M89" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N89" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="8">
+        <v>2</v>
+      </c>
+      <c r="C90" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D90" s="8">
+        <v>17</v>
+      </c>
+      <c r="E90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K90" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L90" s="8">
+        <v>5</v>
+      </c>
+      <c r="M90" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N87" s="8">
+      <c r="N90" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="8">
+        <v>2</v>
+      </c>
+      <c r="C91" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D91" s="8">
+        <v>17</v>
+      </c>
+      <c r="E91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L91" s="8">
+        <v>5</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N91" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N87"/>
+  <autoFilter ref="A1:N91"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$93</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="80">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,13 +672,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,16 +747,17 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="10">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43118</v>
       </c>
       <c r="D2" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="b">
         <v>1</v>
@@ -780,10 +781,10 @@
         <v>10000001</v>
       </c>
       <c r="L2" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N2" s="5">
         <v>0</v>
@@ -791,183 +792,141 @@
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <f ca="1">TODAY()</f>
+        <v>43118</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="A6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D6" s="5">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L6" s="5">
+        <v>26</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>24</v>
@@ -1006,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N10" s="5">
         <v>0</v>
@@ -1050,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N11" s="5">
         <v>0</v>
@@ -1094,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N12" s="5">
         <v>0</v>
@@ -1138,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N13" s="5">
         <v>0</v>
@@ -1182,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14" s="5">
         <v>0</v>
@@ -1226,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N15" s="5">
         <v>0</v>
@@ -1270,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" s="5">
         <v>0</v>
@@ -1314,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" s="5">
         <v>0</v>
@@ -1358,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N18" s="5">
         <v>0</v>
@@ -1402,97 +1361,97 @@
         <v>1</v>
       </c>
       <c r="M19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="8">
-        <v>2</v>
-      </c>
-      <c r="C20" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D20" s="8">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="8">
+      <c r="N20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="8">
-        <v>2</v>
-      </c>
-      <c r="C21" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="8">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1534,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
@@ -1578,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N23" s="8">
         <v>0</v>
@@ -1622,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N24" s="8">
         <v>0</v>
@@ -1666,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N25" s="8">
         <v>0</v>
@@ -1710,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26" s="8">
         <v>0</v>
@@ -1754,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N27" s="8">
         <v>0</v>
@@ -1798,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N28" s="8">
         <v>0</v>
@@ -1842,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N29" s="8">
         <v>0</v>
@@ -1886,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N30" s="8">
         <v>0</v>
@@ -1930,97 +1889,97 @@
         <v>1</v>
       </c>
       <c r="M31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="M32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D32" s="5">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L32" s="5">
-        <v>1</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N32" s="5">
+      <c r="N32" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D33" s="5">
-        <v>3</v>
-      </c>
-      <c r="E33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L33" s="5">
-        <v>1</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33" s="5">
+      <c r="A33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2</v>
+      </c>
+      <c r="C33" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2062,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N34" s="5">
         <v>0</v>
@@ -2106,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N35" s="5">
         <v>0</v>
@@ -2114,7 +2073,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
@@ -2123,7 +2082,7 @@
         <v>43004</v>
       </c>
       <c r="D36" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="4" t="b">
         <v>1</v>
@@ -2147,10 +2106,10 @@
         <v>10000001</v>
       </c>
       <c r="L36" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N36" s="5">
         <v>0</v>
@@ -2158,7 +2117,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
@@ -2167,7 +2126,7 @@
         <v>43004</v>
       </c>
       <c r="D37" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37" s="4" t="b">
         <v>1</v>
@@ -2191,10 +2150,10 @@
         <v>10000001</v>
       </c>
       <c r="L37" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N37" s="5">
         <v>0</v>
@@ -2238,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N38" s="5">
         <v>0</v>
@@ -2282,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N39" s="5">
         <v>0</v>
@@ -2290,7 +2249,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -2299,7 +2258,7 @@
         <v>43004</v>
       </c>
       <c r="D40" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="4" t="b">
         <v>1</v>
@@ -2323,10 +2282,10 @@
         <v>10000001</v>
       </c>
       <c r="L40" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N40" s="5">
         <v>0</v>
@@ -2334,7 +2293,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -2343,7 +2302,7 @@
         <v>43004</v>
       </c>
       <c r="D41" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" s="4" t="b">
         <v>1</v>
@@ -2367,10 +2326,10 @@
         <v>10000001</v>
       </c>
       <c r="L41" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N41" s="5">
         <v>0</v>
@@ -2414,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N42" s="5">
         <v>0</v>
@@ -2458,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N43" s="5">
         <v>0</v>
@@ -2466,7 +2425,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -2475,7 +2434,7 @@
         <v>43004</v>
       </c>
       <c r="D44" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" s="4" t="b">
         <v>1</v>
@@ -2499,10 +2458,10 @@
         <v>10000001</v>
       </c>
       <c r="L44" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N44" s="5">
         <v>0</v>
@@ -2510,7 +2469,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -2519,7 +2478,7 @@
         <v>43004</v>
       </c>
       <c r="D45" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4" t="b">
         <v>1</v>
@@ -2543,10 +2502,10 @@
         <v>10000001</v>
       </c>
       <c r="L45" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N45" s="5">
         <v>0</v>
@@ -2590,7 +2549,7 @@
         <v>4</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N46" s="5">
         <v>0</v>
@@ -2634,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N47" s="5">
         <v>0</v>
@@ -2642,7 +2601,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -2651,7 +2610,7 @@
         <v>43004</v>
       </c>
       <c r="D48" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" s="4" t="b">
         <v>1</v>
@@ -2675,10 +2634,10 @@
         <v>10000001</v>
       </c>
       <c r="L48" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N48" s="5">
         <v>0</v>
@@ -2686,7 +2645,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
@@ -2695,7 +2654,7 @@
         <v>43004</v>
       </c>
       <c r="D49" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="4" t="b">
         <v>1</v>
@@ -2719,10 +2678,10 @@
         <v>10000001</v>
       </c>
       <c r="L49" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N49" s="5">
         <v>0</v>
@@ -2766,7 +2725,7 @@
         <v>5</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N50" s="5">
         <v>0</v>
@@ -2810,7 +2769,7 @@
         <v>5</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N51" s="5">
         <v>0</v>
@@ -2818,7 +2777,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -2827,7 +2786,7 @@
         <v>43004</v>
       </c>
       <c r="D52" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52" s="4" t="b">
         <v>1</v>
@@ -2851,10 +2810,10 @@
         <v>10000001</v>
       </c>
       <c r="L52" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N52" s="5">
         <v>0</v>
@@ -2862,7 +2821,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -2871,7 +2830,7 @@
         <v>43004</v>
       </c>
       <c r="D53" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="4" t="b">
         <v>1</v>
@@ -2895,10 +2854,10 @@
         <v>10000001</v>
       </c>
       <c r="L53" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N53" s="5">
         <v>0</v>
@@ -2942,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N54" s="5">
         <v>0</v>
@@ -2986,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N55" s="5">
         <v>0</v>
@@ -2994,7 +2953,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -3003,7 +2962,7 @@
         <v>43004</v>
       </c>
       <c r="D56" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E56" s="4" t="b">
         <v>1</v>
@@ -3027,10 +2986,10 @@
         <v>10000001</v>
       </c>
       <c r="L56" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N56" s="5">
         <v>0</v>
@@ -3038,7 +2997,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
@@ -3047,7 +3006,7 @@
         <v>43004</v>
       </c>
       <c r="D57" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57" s="4" t="b">
         <v>1</v>
@@ -3071,10 +3030,10 @@
         <v>10000001</v>
       </c>
       <c r="L57" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N57" s="5">
         <v>0</v>
@@ -3118,7 +3077,7 @@
         <v>2</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N58" s="5">
         <v>0</v>
@@ -3162,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N59" s="5">
         <v>0</v>
@@ -3170,7 +3129,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B60" s="5">
         <v>1</v>
@@ -3179,7 +3138,7 @@
         <v>43004</v>
       </c>
       <c r="D60" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="4" t="b">
         <v>1</v>
@@ -3203,10 +3162,10 @@
         <v>10000001</v>
       </c>
       <c r="L60" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N60" s="5">
         <v>0</v>
@@ -3214,7 +3173,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B61" s="5">
         <v>1</v>
@@ -3223,7 +3182,7 @@
         <v>43004</v>
       </c>
       <c r="D61" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="4" t="b">
         <v>1</v>
@@ -3247,10 +3206,10 @@
         <v>10000001</v>
       </c>
       <c r="L61" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N61" s="5">
         <v>0</v>
@@ -3294,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N62" s="5">
         <v>0</v>
@@ -3338,7 +3297,7 @@
         <v>3</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N63" s="5">
         <v>0</v>
@@ -3346,7 +3305,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -3355,7 +3314,7 @@
         <v>43004</v>
       </c>
       <c r="D64" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E64" s="4" t="b">
         <v>1</v>
@@ -3379,10 +3338,10 @@
         <v>10000001</v>
       </c>
       <c r="L64" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N64" s="5">
         <v>0</v>
@@ -3390,7 +3349,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -3399,7 +3358,7 @@
         <v>43004</v>
       </c>
       <c r="D65" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" s="4" t="b">
         <v>1</v>
@@ -3423,10 +3382,10 @@
         <v>10000001</v>
       </c>
       <c r="L65" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N65" s="5">
         <v>0</v>
@@ -3470,7 +3429,7 @@
         <v>4</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N66" s="5">
         <v>0</v>
@@ -3514,7 +3473,7 @@
         <v>4</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N67" s="5">
         <v>0</v>
@@ -3522,7 +3481,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B68" s="5">
         <v>1</v>
@@ -3531,7 +3490,7 @@
         <v>43004</v>
       </c>
       <c r="D68" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68" s="4" t="b">
         <v>1</v>
@@ -3555,10 +3514,10 @@
         <v>10000001</v>
       </c>
       <c r="L68" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N68" s="5">
         <v>0</v>
@@ -3566,7 +3525,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B69" s="5">
         <v>1</v>
@@ -3575,7 +3534,7 @@
         <v>43004</v>
       </c>
       <c r="D69" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" s="4" t="b">
         <v>1</v>
@@ -3599,10 +3558,10 @@
         <v>10000001</v>
       </c>
       <c r="L69" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N69" s="5">
         <v>0</v>
@@ -3646,7 +3605,7 @@
         <v>5</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N70" s="5">
         <v>0</v>
@@ -3690,97 +3649,97 @@
         <v>5</v>
       </c>
       <c r="M71" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D72" s="5">
+        <v>12</v>
+      </c>
+      <c r="E72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K72" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L72" s="5">
+        <v>5</v>
+      </c>
+      <c r="M72" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N71" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" s="8">
-        <v>2</v>
-      </c>
-      <c r="C72" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D72" s="8">
-        <v>13</v>
-      </c>
-      <c r="E72" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G72" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K72" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L72" s="8">
-        <v>1</v>
-      </c>
-      <c r="M72" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N72" s="8">
+      <c r="N72" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="8">
-        <v>2</v>
-      </c>
-      <c r="C73" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D73" s="8">
-        <v>13</v>
-      </c>
-      <c r="E73" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G73" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K73" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L73" s="8">
-        <v>1</v>
-      </c>
-      <c r="M73" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N73" s="8">
+      <c r="A73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D73" s="5">
+        <v>12</v>
+      </c>
+      <c r="E73" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K73" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L73" s="5">
+        <v>5</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N73" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3822,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N74" s="8">
         <v>0</v>
@@ -3866,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N75" s="8">
         <v>0</v>
@@ -3874,7 +3833,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B76" s="8">
         <v>2</v>
@@ -3883,7 +3842,7 @@
         <v>43004</v>
       </c>
       <c r="D76" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76" s="7" t="b">
         <v>1</v>
@@ -3907,10 +3866,10 @@
         <v>10000001</v>
       </c>
       <c r="L76" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N76" s="8">
         <v>0</v>
@@ -3918,7 +3877,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B77" s="8">
         <v>2</v>
@@ -3927,7 +3886,7 @@
         <v>43004</v>
       </c>
       <c r="D77" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E77" s="7" t="b">
         <v>1</v>
@@ -3951,10 +3910,10 @@
         <v>10000001</v>
       </c>
       <c r="L77" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N77" s="8">
         <v>0</v>
@@ -3998,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N78" s="8">
         <v>0</v>
@@ -4042,7 +4001,7 @@
         <v>2</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N79" s="8">
         <v>0</v>
@@ -4050,7 +4009,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B80" s="8">
         <v>2</v>
@@ -4059,7 +4018,7 @@
         <v>43004</v>
       </c>
       <c r="D80" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E80" s="7" t="b">
         <v>1</v>
@@ -4083,10 +4042,10 @@
         <v>10000001</v>
       </c>
       <c r="L80" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N80" s="8">
         <v>0</v>
@@ -4094,7 +4053,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B81" s="8">
         <v>2</v>
@@ -4103,7 +4062,7 @@
         <v>43004</v>
       </c>
       <c r="D81" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81" s="7" t="b">
         <v>1</v>
@@ -4127,10 +4086,10 @@
         <v>10000001</v>
       </c>
       <c r="L81" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N81" s="8">
         <v>0</v>
@@ -4174,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N82" s="8">
         <v>0</v>
@@ -4218,7 +4177,7 @@
         <v>3</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N83" s="8">
         <v>0</v>
@@ -4226,7 +4185,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B84" s="8">
         <v>2</v>
@@ -4235,7 +4194,7 @@
         <v>43004</v>
       </c>
       <c r="D84" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E84" s="7" t="b">
         <v>1</v>
@@ -4259,10 +4218,10 @@
         <v>10000001</v>
       </c>
       <c r="L84" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N84" s="8">
         <v>0</v>
@@ -4270,7 +4229,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B85" s="8">
         <v>2</v>
@@ -4279,7 +4238,7 @@
         <v>43004</v>
       </c>
       <c r="D85" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E85" s="7" t="b">
         <v>1</v>
@@ -4303,10 +4262,10 @@
         <v>10000001</v>
       </c>
       <c r="L85" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N85" s="8">
         <v>0</v>
@@ -4350,7 +4309,7 @@
         <v>4</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N86" s="8">
         <v>0</v>
@@ -4394,7 +4353,7 @@
         <v>4</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N87" s="8">
         <v>0</v>
@@ -4402,7 +4361,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B88" s="8">
         <v>2</v>
@@ -4411,7 +4370,7 @@
         <v>43004</v>
       </c>
       <c r="D88" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88" s="7" t="b">
         <v>1</v>
@@ -4435,10 +4394,10 @@
         <v>10000001</v>
       </c>
       <c r="L88" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N88" s="8">
         <v>0</v>
@@ -4446,7 +4405,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B89" s="8">
         <v>2</v>
@@ -4455,7 +4414,7 @@
         <v>43004</v>
       </c>
       <c r="D89" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89" s="7" t="b">
         <v>1</v>
@@ -4479,10 +4438,10 @@
         <v>10000001</v>
       </c>
       <c r="L89" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N89" s="8">
         <v>0</v>
@@ -4526,7 +4485,7 @@
         <v>5</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N90" s="8">
         <v>0</v>
@@ -4570,21 +4529,109 @@
         <v>5</v>
       </c>
       <c r="M91" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N91" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="8">
+        <v>2</v>
+      </c>
+      <c r="C92" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D92" s="8">
+        <v>17</v>
+      </c>
+      <c r="E92" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K92" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L92" s="8">
+        <v>5</v>
+      </c>
+      <c r="M92" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N91" s="8">
+      <c r="N92" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="8">
+        <v>2</v>
+      </c>
+      <c r="C93" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D93" s="8">
+        <v>17</v>
+      </c>
+      <c r="E93" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K93" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L93" s="8">
+        <v>5</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N93" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N91"/>
+  <autoFilter ref="A1:N93" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -8353,7 +8400,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
@@ -678,7 +678,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -753,8 +753,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="10">
-        <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43160</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -800,7 +799,7 @@
       </c>
       <c r="C4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43229</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>

--- a/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvillarruel\PycharmProjects\NASOnline_TestFramework\utilities\Excel_Sheets\Products\"/>
@@ -673,12 +673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,7 +800,7 @@
       </c>
       <c r="C4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43229</v>
+        <v>43278</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
@@ -4631,6 +4632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">

--- a/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_OMIC.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Full_Regression" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$93</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="80">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -676,10 +676,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -800,7 +800,7 @@
       </c>
       <c r="C4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43383</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
@@ -4633,34 +4633,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="62.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="62.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -4668,3740 +4665,2988 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4" t="s">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L15" s="8">
-        <v>1</v>
-      </c>
-      <c r="M15" s="7" t="s">
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1</v>
-      </c>
-      <c r="M16" s="7" t="s">
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="8">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D17" s="8">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L17" s="8">
-        <v>1</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8">
-        <v>2</v>
-      </c>
-      <c r="C19" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
-      <c r="E19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7" t="s">
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="8">
-        <v>2</v>
-      </c>
-      <c r="C20" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D20" s="8">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="8">
-        <v>2</v>
-      </c>
-      <c r="C21" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7" t="s">
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="8">
-        <v>2</v>
-      </c>
-      <c r="C22" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D22" s="8">
-        <v>2</v>
-      </c>
-      <c r="E22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="8">
-        <v>2</v>
-      </c>
-      <c r="C23" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D23" s="8">
-        <v>2</v>
-      </c>
-      <c r="E23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1</v>
-      </c>
-      <c r="M23" s="7" t="s">
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="8">
-        <v>2</v>
-      </c>
-      <c r="C24" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2</v>
-      </c>
-      <c r="E24" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L24" s="8">
-        <v>1</v>
-      </c>
-      <c r="M24" s="7" t="s">
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="8">
-        <v>2</v>
-      </c>
-      <c r="C25" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2</v>
-      </c>
-      <c r="E25" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L25" s="8">
-        <v>1</v>
-      </c>
-      <c r="M25" s="7" t="s">
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
         <v>3</v>
       </c>
-      <c r="E26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1</v>
-      </c>
-      <c r="M26" s="4" t="s">
+      <c r="D27" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="E27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4" t="s">
+      <c r="D28" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
         <v>3</v>
       </c>
-      <c r="E28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L28" s="5">
-        <v>1</v>
-      </c>
-      <c r="M28" s="4" t="s">
+      <c r="D29" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
         <v>3</v>
       </c>
-      <c r="E29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="4" t="s">
+      <c r="D30" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
         <v>4</v>
       </c>
-      <c r="E30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L30" s="5">
-        <v>2</v>
-      </c>
-      <c r="M30" s="4" t="s">
+      <c r="D31" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I31" s="5">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
         <v>4</v>
       </c>
-      <c r="E31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L31" s="5">
-        <v>2</v>
-      </c>
-      <c r="M31" s="4" t="s">
+      <c r="D32" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I32" s="5">
+        <v>2</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
         <v>4</v>
       </c>
-      <c r="E32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L32" s="5">
-        <v>2</v>
-      </c>
-      <c r="M32" s="4" t="s">
+      <c r="D33" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
         <v>4</v>
       </c>
-      <c r="E33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L33" s="5">
-        <v>2</v>
-      </c>
-      <c r="M33" s="4" t="s">
+      <c r="D34" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
         <v>5</v>
       </c>
-      <c r="E34" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L34" s="5">
+      <c r="D35" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I35" s="5">
         <v>3</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
         <v>5</v>
       </c>
-      <c r="E35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L35" s="5">
+      <c r="D36" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I36" s="5">
         <v>3</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
         <v>5</v>
       </c>
-      <c r="E36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L36" s="5">
+      <c r="D37" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I37" s="5">
         <v>3</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
         <v>5</v>
       </c>
-      <c r="E37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L37" s="5">
+      <c r="D38" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I38" s="5">
         <v>3</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D38" s="5">
-        <v>6</v>
-      </c>
-      <c r="E38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L38" s="5">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5">
+        <v>6</v>
+      </c>
+      <c r="D39" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I39" s="5">
         <v>4</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D39" s="5">
-        <v>6</v>
-      </c>
-      <c r="E39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L39" s="5">
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5">
+        <v>6</v>
+      </c>
+      <c r="D40" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I40" s="5">
         <v>4</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D40" s="5">
-        <v>6</v>
-      </c>
-      <c r="E40" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L40" s="5">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5">
+        <v>6</v>
+      </c>
+      <c r="D41" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I41" s="5">
         <v>4</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D41" s="5">
-        <v>6</v>
-      </c>
-      <c r="E41" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K41" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L41" s="5">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5">
+        <v>6</v>
+      </c>
+      <c r="D42" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I42" s="5">
         <v>4</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D42" s="5">
-        <v>7</v>
-      </c>
-      <c r="E42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L42" s="5">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5">
+        <v>7</v>
+      </c>
+      <c r="D43" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I43" s="5">
         <v>5</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N42" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D43" s="5">
-        <v>7</v>
-      </c>
-      <c r="E43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L43" s="5">
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5">
+        <v>7</v>
+      </c>
+      <c r="D44" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I44" s="5">
         <v>5</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D44" s="5">
-        <v>7</v>
-      </c>
-      <c r="E44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L44" s="5">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5">
+        <v>7</v>
+      </c>
+      <c r="D45" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I45" s="5">
         <v>5</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="K45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D45" s="5">
-        <v>7</v>
-      </c>
-      <c r="E45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L45" s="5">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5">
+        <v>7</v>
+      </c>
+      <c r="D46" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I46" s="5">
         <v>5</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5">
         <v>8</v>
       </c>
-      <c r="E46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L46" s="5">
-        <v>1</v>
-      </c>
-      <c r="M46" s="4" t="s">
+      <c r="D47" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N46" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
         <v>8</v>
       </c>
-      <c r="E47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K47" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L47" s="5">
-        <v>1</v>
-      </c>
-      <c r="M47" s="4" t="s">
+      <c r="D48" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5">
         <v>8</v>
       </c>
-      <c r="E48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L48" s="5">
-        <v>1</v>
-      </c>
-      <c r="M48" s="4" t="s">
+      <c r="D49" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N48" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5">
         <v>8</v>
       </c>
-      <c r="E49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L49" s="5">
-        <v>1</v>
-      </c>
-      <c r="M49" s="4" t="s">
+      <c r="D50" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N49" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="K50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D50" s="5">
-        <v>9</v>
-      </c>
-      <c r="E50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L50" s="5">
-        <v>2</v>
-      </c>
-      <c r="M50" s="4" t="s">
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5">
+        <v>9</v>
+      </c>
+      <c r="D51" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I51" s="5">
+        <v>2</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N50" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="K51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D51" s="5">
-        <v>9</v>
-      </c>
-      <c r="E51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L51" s="5">
-        <v>2</v>
-      </c>
-      <c r="M51" s="4" t="s">
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5">
+        <v>9</v>
+      </c>
+      <c r="D52" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I52" s="5">
+        <v>2</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N51" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="K52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D52" s="5">
-        <v>9</v>
-      </c>
-      <c r="E52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K52" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L52" s="5">
-        <v>2</v>
-      </c>
-      <c r="M52" s="4" t="s">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5">
+        <v>9</v>
+      </c>
+      <c r="D53" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I53" s="5">
+        <v>2</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N52" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="K53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D53" s="5">
-        <v>9</v>
-      </c>
-      <c r="E53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K53" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L53" s="5">
-        <v>2</v>
-      </c>
-      <c r="M53" s="4" t="s">
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5">
+        <v>9</v>
+      </c>
+      <c r="D54" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I54" s="5">
+        <v>2</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N53" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="K54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D54" s="5">
-        <v>10</v>
-      </c>
-      <c r="E54" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K54" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L54" s="5">
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5">
+        <v>10</v>
+      </c>
+      <c r="D55" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I55" s="5">
         <v>3</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N54" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="K55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D55" s="5">
-        <v>10</v>
-      </c>
-      <c r="E55" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K55" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L55" s="5">
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5">
+        <v>10</v>
+      </c>
+      <c r="D56" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I56" s="5">
         <v>3</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N55" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="K56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D56" s="5">
-        <v>10</v>
-      </c>
-      <c r="E56" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K56" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L56" s="5">
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5">
+        <v>10</v>
+      </c>
+      <c r="D57" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I57" s="5">
         <v>3</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N56" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="K57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D57" s="5">
-        <v>10</v>
-      </c>
-      <c r="E57" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K57" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L57" s="5">
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5">
+        <v>10</v>
+      </c>
+      <c r="D58" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I58" s="5">
         <v>3</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N57" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="K58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5">
         <v>11</v>
       </c>
-      <c r="E58" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K58" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L58" s="5">
+      <c r="D59" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I59" s="5">
         <v>4</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="J59" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N58" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="K59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5">
         <v>11</v>
       </c>
-      <c r="E59" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L59" s="5">
+      <c r="D60" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I60" s="5">
         <v>4</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N59" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="K60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5">
         <v>11</v>
       </c>
-      <c r="E60" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K60" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L60" s="5">
+      <c r="D61" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I61" s="5">
         <v>4</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N60" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="5">
-        <v>1</v>
-      </c>
-      <c r="C61" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5">
         <v>11</v>
       </c>
-      <c r="E61" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K61" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L61" s="5">
+      <c r="D62" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I62" s="5">
         <v>4</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N61" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="K62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5">
         <v>12</v>
       </c>
-      <c r="E62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K62" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L62" s="5">
+      <c r="D63" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I63" s="5">
         <v>5</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N62" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="K63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="5">
-        <v>1</v>
-      </c>
-      <c r="C63" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D63" s="5">
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5">
         <v>12</v>
       </c>
-      <c r="E63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K63" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L63" s="5">
+      <c r="D64" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I64" s="5">
         <v>5</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N63" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="K64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="5">
-        <v>1</v>
-      </c>
-      <c r="C64" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D64" s="5">
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5">
         <v>12</v>
       </c>
-      <c r="E64" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K64" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L64" s="5">
+      <c r="D65" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I65" s="5">
         <v>5</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N64" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="K65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="5">
-        <v>1</v>
-      </c>
-      <c r="C65" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D65" s="5">
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5">
         <v>12</v>
       </c>
-      <c r="E65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K65" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L65" s="5">
+      <c r="D66" s="10">
+        <v>43004</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="I66" s="5">
         <v>5</v>
       </c>
-      <c r="M65" s="4" t="s">
+      <c r="J66" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N65" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+      <c r="K66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="8">
-        <v>2</v>
-      </c>
-      <c r="C66" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D66" s="8">
+      <c r="B67" s="8">
+        <v>2</v>
+      </c>
+      <c r="C67" s="8">
         <v>13</v>
       </c>
-      <c r="E66" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K66" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L66" s="8">
-        <v>1</v>
-      </c>
-      <c r="M66" s="7" t="s">
+      <c r="D67" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I67" s="8">
+        <v>1</v>
+      </c>
+      <c r="J67" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N66" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+      <c r="K67" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="8">
-        <v>2</v>
-      </c>
-      <c r="C67" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D67" s="8">
+      <c r="B68" s="8">
+        <v>2</v>
+      </c>
+      <c r="C68" s="8">
         <v>13</v>
       </c>
-      <c r="E67" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K67" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L67" s="8">
-        <v>1</v>
-      </c>
-      <c r="M67" s="7" t="s">
+      <c r="D68" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I68" s="8">
+        <v>1</v>
+      </c>
+      <c r="J68" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N67" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+      <c r="K68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="8">
-        <v>2</v>
-      </c>
-      <c r="C68" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D68" s="8">
+      <c r="B69" s="8">
+        <v>2</v>
+      </c>
+      <c r="C69" s="8">
         <v>13</v>
       </c>
-      <c r="E68" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K68" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L68" s="8">
-        <v>1</v>
-      </c>
-      <c r="M68" s="7" t="s">
+      <c r="D69" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I69" s="8">
+        <v>1</v>
+      </c>
+      <c r="J69" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N68" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+      <c r="K69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="8">
-        <v>2</v>
-      </c>
-      <c r="C69" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D69" s="8">
+      <c r="B70" s="8">
+        <v>2</v>
+      </c>
+      <c r="C70" s="8">
         <v>13</v>
       </c>
-      <c r="E69" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G69" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K69" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L69" s="8">
-        <v>1</v>
-      </c>
-      <c r="M69" s="7" t="s">
+      <c r="D70" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I70" s="8">
+        <v>1</v>
+      </c>
+      <c r="J70" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N69" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+      <c r="K70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="8">
-        <v>2</v>
-      </c>
-      <c r="C70" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D70" s="8">
+      <c r="B71" s="8">
+        <v>2</v>
+      </c>
+      <c r="C71" s="8">
         <v>14</v>
       </c>
-      <c r="E70" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K70" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L70" s="8">
-        <v>2</v>
-      </c>
-      <c r="M70" s="7" t="s">
+      <c r="D71" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I71" s="8">
+        <v>2</v>
+      </c>
+      <c r="J71" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N70" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+      <c r="K71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="8">
-        <v>2</v>
-      </c>
-      <c r="C71" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D71" s="8">
+      <c r="B72" s="8">
+        <v>2</v>
+      </c>
+      <c r="C72" s="8">
         <v>14</v>
       </c>
-      <c r="E71" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K71" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L71" s="8">
-        <v>2</v>
-      </c>
-      <c r="M71" s="7" t="s">
+      <c r="D72" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I72" s="8">
+        <v>2</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N71" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+      <c r="K72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="8">
-        <v>2</v>
-      </c>
-      <c r="C72" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D72" s="8">
+      <c r="B73" s="8">
+        <v>2</v>
+      </c>
+      <c r="C73" s="8">
         <v>14</v>
       </c>
-      <c r="E72" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G72" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K72" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L72" s="8">
-        <v>2</v>
-      </c>
-      <c r="M72" s="7" t="s">
+      <c r="D73" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I73" s="8">
+        <v>2</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N72" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+      <c r="K73" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="8">
-        <v>2</v>
-      </c>
-      <c r="C73" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D73" s="8">
+      <c r="B74" s="8">
+        <v>2</v>
+      </c>
+      <c r="C74" s="8">
         <v>14</v>
       </c>
-      <c r="E73" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G73" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K73" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L73" s="8">
-        <v>2</v>
-      </c>
-      <c r="M73" s="7" t="s">
+      <c r="D74" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I74" s="8">
+        <v>2</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N73" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+      <c r="K74" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="8">
-        <v>2</v>
-      </c>
-      <c r="C74" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D74" s="8">
+      <c r="B75" s="8">
+        <v>2</v>
+      </c>
+      <c r="C75" s="8">
         <v>15</v>
       </c>
-      <c r="E74" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G74" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K74" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L74" s="8">
+      <c r="D75" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I75" s="8">
         <v>3</v>
       </c>
-      <c r="M74" s="7" t="s">
+      <c r="J75" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N74" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+      <c r="K75" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="8">
-        <v>2</v>
-      </c>
-      <c r="C75" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D75" s="8">
+      <c r="B76" s="8">
+        <v>2</v>
+      </c>
+      <c r="C76" s="8">
         <v>15</v>
       </c>
-      <c r="E75" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F75" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G75" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K75" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L75" s="8">
+      <c r="D76" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I76" s="8">
         <v>3</v>
       </c>
-      <c r="M75" s="7" t="s">
+      <c r="J76" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N75" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+      <c r="K76" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B76" s="8">
-        <v>2</v>
-      </c>
-      <c r="C76" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D76" s="8">
+      <c r="B77" s="8">
+        <v>2</v>
+      </c>
+      <c r="C77" s="8">
         <v>15</v>
       </c>
-      <c r="E76" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G76" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K76" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L76" s="8">
+      <c r="D77" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I77" s="8">
         <v>3</v>
       </c>
-      <c r="M76" s="7" t="s">
+      <c r="J77" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N76" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+      <c r="K77" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="8">
-        <v>2</v>
-      </c>
-      <c r="C77" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D77" s="8">
+      <c r="B78" s="8">
+        <v>2</v>
+      </c>
+      <c r="C78" s="8">
         <v>15</v>
       </c>
-      <c r="E77" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F77" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G77" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K77" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L77" s="8">
+      <c r="D78" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I78" s="8">
         <v>3</v>
       </c>
-      <c r="M77" s="7" t="s">
+      <c r="J78" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N77" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
+      <c r="K78" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="8">
-        <v>2</v>
-      </c>
-      <c r="C78" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D78" s="8">
+      <c r="B79" s="8">
+        <v>2</v>
+      </c>
+      <c r="C79" s="8">
         <v>16</v>
       </c>
-      <c r="E78" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G78" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K78" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L78" s="8">
+      <c r="D79" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I79" s="8">
         <v>4</v>
       </c>
-      <c r="M78" s="7" t="s">
+      <c r="J79" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N78" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+      <c r="K79" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="8">
-        <v>2</v>
-      </c>
-      <c r="C79" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D79" s="8">
+      <c r="B80" s="8">
+        <v>2</v>
+      </c>
+      <c r="C80" s="8">
         <v>16</v>
       </c>
-      <c r="E79" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F79" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G79" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K79" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L79" s="8">
+      <c r="D80" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I80" s="8">
         <v>4</v>
       </c>
-      <c r="M79" s="7" t="s">
+      <c r="J80" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N79" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
+      <c r="K80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="8">
-        <v>2</v>
-      </c>
-      <c r="C80" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D80" s="8">
+      <c r="B81" s="8">
+        <v>2</v>
+      </c>
+      <c r="C81" s="8">
         <v>16</v>
       </c>
-      <c r="E80" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F80" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G80" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K80" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L80" s="8">
+      <c r="D81" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I81" s="8">
         <v>4</v>
       </c>
-      <c r="M80" s="7" t="s">
+      <c r="J81" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N80" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
+      <c r="K81" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B81" s="8">
-        <v>2</v>
-      </c>
-      <c r="C81" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D81" s="8">
+      <c r="B82" s="8">
+        <v>2</v>
+      </c>
+      <c r="C82" s="8">
         <v>16</v>
       </c>
-      <c r="E81" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F81" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G81" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K81" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L81" s="8">
+      <c r="D82" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I82" s="8">
         <v>4</v>
       </c>
-      <c r="M81" s="7" t="s">
+      <c r="J82" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N81" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+      <c r="K82" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="8">
-        <v>2</v>
-      </c>
-      <c r="C82" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D82" s="8">
+      <c r="B83" s="8">
+        <v>2</v>
+      </c>
+      <c r="C83" s="8">
         <v>17</v>
       </c>
-      <c r="E82" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F82" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G82" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K82" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L82" s="8">
+      <c r="D83" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I83" s="8">
         <v>5</v>
       </c>
-      <c r="M82" s="7" t="s">
+      <c r="J83" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N82" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+      <c r="K83" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="8">
-        <v>2</v>
-      </c>
-      <c r="C83" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D83" s="8">
+      <c r="B84" s="8">
+        <v>2</v>
+      </c>
+      <c r="C84" s="8">
         <v>17</v>
       </c>
-      <c r="E83" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G83" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K83" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L83" s="8">
+      <c r="D84" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I84" s="8">
         <v>5</v>
       </c>
-      <c r="M83" s="7" t="s">
+      <c r="J84" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N83" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
+      <c r="K84" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="8">
-        <v>2</v>
-      </c>
-      <c r="C84" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D84" s="8">
+      <c r="B85" s="8">
+        <v>2</v>
+      </c>
+      <c r="C85" s="8">
         <v>17</v>
       </c>
-      <c r="E84" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G84" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K84" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L84" s="8">
+      <c r="D85" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I85" s="8">
         <v>5</v>
       </c>
-      <c r="M84" s="7" t="s">
+      <c r="J85" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N84" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+      <c r="K85" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="8">
-        <v>2</v>
-      </c>
-      <c r="C85" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D85" s="8">
+      <c r="B86" s="8">
+        <v>2</v>
+      </c>
+      <c r="C86" s="8">
         <v>17</v>
       </c>
-      <c r="E85" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F85" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G85" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K85" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L85" s="8">
+      <c r="D86" s="11">
+        <v>43004</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="I86" s="8">
         <v>5</v>
       </c>
-      <c r="M85" s="7" t="s">
+      <c r="J86" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N85" s="8">
+      <c r="K86" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
